--- a/tools/slbz.xlsx
+++ b/tools/slbz.xlsx
@@ -476,7 +476,7 @@
         <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -502,7 +502,7 @@
         <v>45</v>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -528,7 +528,7 @@
         <v>45</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -580,7 +580,7 @@
         <v>45</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -606,7 +606,7 @@
         <v>45</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
         <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         <v>45</v>
       </c>
       <c r="F9" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -684,7 +684,7 @@
         <v>45</v>
       </c>
       <c r="F10" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -710,7 +710,7 @@
         <v>45</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -736,7 +736,7 @@
         <v>45</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -762,7 +762,7 @@
         <v>45</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -788,7 +788,7 @@
         <v>45</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -814,7 +814,7 @@
         <v>45</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -840,7 +840,7 @@
         <v>45</v>
       </c>
       <c r="F16" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -866,7 +866,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -892,7 +892,7 @@
         <v>45</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -918,7 +918,7 @@
         <v>45</v>
       </c>
       <c r="F19" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -944,7 +944,7 @@
         <v>45</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -970,7 +970,7 @@
         <v>45</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -996,7 +996,7 @@
         <v>45</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -1048,7 +1048,7 @@
         <v>45</v>
       </c>
       <c r="F24" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1074,7 +1074,7 @@
         <v>45</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1100,7 +1100,7 @@
         <v>45</v>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1126,7 +1126,7 @@
         <v>45</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1152,7 +1152,7 @@
         <v>45</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1178,7 +1178,7 @@
         <v>45</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1204,7 +1204,7 @@
         <v>45</v>
       </c>
       <c r="F30" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
@@ -1230,7 +1230,7 @@
         <v>45</v>
       </c>
       <c r="F31" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -1256,7 +1256,7 @@
         <v>45</v>
       </c>
       <c r="F32" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1282,7 +1282,7 @@
         <v>45</v>
       </c>
       <c r="F33" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1308,7 +1308,7 @@
         <v>45</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1334,7 +1334,7 @@
         <v>45</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1360,7 +1360,7 @@
         <v>45</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1386,7 +1386,7 @@
         <v>45</v>
       </c>
       <c r="F37" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -1412,7 +1412,7 @@
         <v>45</v>
       </c>
       <c r="F38" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -1438,7 +1438,7 @@
         <v>45</v>
       </c>
       <c r="F39" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1464,7 +1464,7 @@
         <v>45</v>
       </c>
       <c r="F40" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1490,7 +1490,7 @@
         <v>45</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1516,7 +1516,7 @@
         <v>45</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1542,7 +1542,7 @@
         <v>45</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1568,7 +1568,7 @@
         <v>45</v>
       </c>
       <c r="F44" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
@@ -1594,7 +1594,7 @@
         <v>45</v>
       </c>
       <c r="F45" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -1620,7 +1620,7 @@
         <v>45</v>
       </c>
       <c r="F46" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -1646,7 +1646,7 @@
         <v>45</v>
       </c>
       <c r="F47" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -1672,7 +1672,7 @@
         <v>45</v>
       </c>
       <c r="F48" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1698,7 +1698,7 @@
         <v>45</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -1724,7 +1724,7 @@
         <v>45</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1750,7 +1750,7 @@
         <v>45</v>
       </c>
       <c r="F51" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52">
@@ -1776,7 +1776,7 @@
         <v>45</v>
       </c>
       <c r="F52" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
@@ -1802,7 +1802,7 @@
         <v>45</v>
       </c>
       <c r="F53" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -1828,7 +1828,7 @@
         <v>45</v>
       </c>
       <c r="F54" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -1854,7 +1854,7 @@
         <v>45</v>
       </c>
       <c r="F55" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -1880,7 +1880,7 @@
         <v>45</v>
       </c>
       <c r="F56" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1906,7 +1906,7 @@
         <v>45</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
